--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/B/20/seed3/result_data_RandomForest.xlsx
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.217499999999998</v>
+        <v>6.044599999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.084699999999999</v>
+        <v>5.163200000000002</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.107699999999997</v>
+        <v>5.039999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.974299999999995</v>
+        <v>7.277099999999995</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.893299999999999</v>
+        <v>5.927300000000002</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.726500000000001</v>
+        <v>8.760700000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.264099999999993</v>
+        <v>6.747799999999993</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,7 +1587,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.697399999999996</v>
+        <v>4.665799999999997</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.166800000000002</v>
+        <v>9.136100000000004</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.3924</v>
+        <v>9.483100000000002</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.7187</v>
+        <v>8.799500000000005</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.504199999999999</v>
+        <v>9.3971</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.679000000000002</v>
+        <v>5.6363</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.488100000000002</v>
+        <v>5.4895</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.032400000000001</v>
+        <v>6.232299999999998</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -2148,7 +2148,7 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.214599999999997</v>
+        <v>9.163199999999993</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.261300000000006</v>
+        <v>8.362900000000003</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
